--- a/umit_files/umit_bio.xlsx
+++ b/umit_files/umit_bio.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1xGevu_ZMAXpJnn91Q0-4gjfIyvrkejsOrf1QjYbT8z0/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Ботаника")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1bUmHaCdpKlvdGgsZqsqaAzUx1Nx5oPjtAQ9EkvrO_q8/edit"",""УМИТЫ!A:Z"")"),"Ботаника")</f>
         <v>Ботаника</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_bio.xlsx
+++ b/umit_files/umit_bio.xlsx
@@ -3611,8 +3611,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
         <v>355</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы селекции и биотехнологии")</f>
+        <v>Методы селекции и биотехнологии</v>
+      </c>
+      <c r="J56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),455.0)</f>
+        <v>455</v>
+      </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3663,8 +3669,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),356.0)</f>
         <v>356</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антипараллельность")</f>
+        <v>Антипараллельность</v>
+      </c>
+      <c r="J57" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3715,8 +3727,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
         <v>357</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="I58" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бинарное деление клетки")</f>
+        <v>Бинарное деление клетки</v>
+      </c>
+      <c r="J58" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457.0)</f>
+        <v>457</v>
+      </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3767,8 +3785,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),358.0)</f>
         <v>358</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I59" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции плавательного пузыря у рыб")</f>
+        <v>Функции плавательного пузыря у рыб</v>
+      </c>
+      <c r="J59" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3819,8 +3843,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),359.0)</f>
         <v>359</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I60" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция нервной системы")</f>
+        <v>Эволюция нервной системы</v>
+      </c>
+      <c r="J60" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
+        <v>459</v>
+      </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3871,8 +3901,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
         <v>360</v>
       </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция кровеносной системы")</f>
+        <v>Эволюция кровеносной системы</v>
+      </c>
+      <c r="J61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3923,8 +3959,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
         <v>361</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="I62" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция опорно-двигательного аппарата")</f>
+        <v>Эволюция опорно-двигательного аппарата</v>
+      </c>
+      <c r="J62" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),461.0)</f>
+        <v>461</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3975,8 +4017,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),362.0)</f>
         <v>362</v>
       </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="I63" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция дыхательной системы")</f>
+        <v>Эволюция дыхательной системы</v>
+      </c>
+      <c r="J63" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
+        <v>462</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -4027,8 +4075,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),363.0)</f>
         <v>363</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="I64" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция выделительной системы")</f>
+        <v>Эволюция выделительной системы</v>
+      </c>
+      <c r="J64" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),463.0)</f>
+        <v>463</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -4079,8 +4133,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
         <v>364</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="I65" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Эволюция пищеварительной системы")</f>
+        <v>Эволюция пищеварительной системы</v>
+      </c>
+      <c r="J65" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -4131,8 +4191,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
         <v>365</v>
       </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="I66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл беззубки")</f>
+        <v>Жизненный цикл беззубки</v>
+      </c>
+      <c r="J66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),465.0)</f>
+        <v>465</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -4183,8 +4249,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
         <v>366</v>
       </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="I67" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл ришты")</f>
+        <v>Жизненный цикл ришты</v>
+      </c>
+      <c r="J67" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4235,8 +4307,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
         <v>367</v>
       </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="I68" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Жизненный цикл острицы")</f>
+        <v>Жизненный цикл острицы</v>
+      </c>
+      <c r="J68" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467.0)</f>
+        <v>467</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -4287,8 +4365,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),368.0)</f>
         <v>368</v>
       </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="I69" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Множественный аллелизм")</f>
+        <v>Множественный аллелизм</v>
+      </c>
+      <c r="J69" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
+      </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -4339,8 +4423,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
         <v>369</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="I70" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первичноротые и вторичноротые")</f>
+        <v>Первичноротые и вторичноротые</v>
+      </c>
+      <c r="J70" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
+        <v>469</v>
+      </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -4385,8 +4475,14 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="I71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямое и непрямое развитие")</f>
+        <v>Прямое и непрямое развитие</v>
+      </c>
+      <c r="J71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
+      </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -4431,8 +4527,14 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="I72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бактериальные заболевания")</f>
+        <v>Бактериальные заболевания</v>
+      </c>
+      <c r="J72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
+      </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -4477,8 +4579,14 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="I73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Значение кишечнополостных")</f>
+        <v>Значение кишечнополостных</v>
+      </c>
+      <c r="J73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
+      </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -4523,8 +4631,14 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="I74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антибиотики (работы А.Флеминга)")</f>
+        <v>Антибиотики (работы А.Флеминга)</v>
+      </c>
+      <c r="J74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
+        <v>473</v>
+      </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>

--- a/umit_files/umit_bio.xlsx
+++ b/umit_files/umit_bio.xlsx
@@ -4473,8 +4473,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),270.0)</f>
         <v>270</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы селекции и биотехнологии")</f>
+        <v>Методы селекции и биотехнологии</v>
+      </c>
+      <c r="H71" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),370.0)</f>
+        <v>370</v>
+      </c>
       <c r="I71" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямое и непрямое развитие")</f>
         <v>Прямое и непрямое развитие</v>
@@ -4525,8 +4531,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
         <v>271</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="G72" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плазматическая мембрана")</f>
+        <v>Плазматическая мембрана</v>
+      </c>
+      <c r="H72" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
+      </c>
       <c r="I72" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бактериальные заболевания")</f>
         <v>Бактериальные заболевания</v>
@@ -4577,8 +4589,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
         <v>272</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Клеточная стенка ")</f>
+        <v>Клеточная стенка </v>
+      </c>
+      <c r="H73" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
+        <v>372</v>
+      </c>
       <c r="I73" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Значение кишечнополостных")</f>
         <v>Значение кишечнополостных</v>
@@ -4629,8 +4647,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
         <v>273</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="G74" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антипараллельность")</f>
+        <v>Антипараллельность</v>
+      </c>
+      <c r="H74" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
+        <v>373</v>
+      </c>
       <c r="I74" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Антибиотики (работы А.Флеминга)")</f>
         <v>Антибиотики (работы А.Флеминга)</v>
@@ -4681,8 +4705,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
         <v>274</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="G75" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бинарное деление клетки")</f>
+        <v>Бинарное деление клетки</v>
+      </c>
+      <c r="H75" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),374.0)</f>
+        <v>374</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -4721,8 +4751,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
         <v>275</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="G76" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кроссинговер между Х и У хромосомами")</f>
+        <v>Кроссинговер между Х и У хромосомами</v>
+      </c>
+      <c r="H76" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4755,8 +4791,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
         <v>276</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лабораторные инструменты и посуда")</f>
+        <v>Лабораторные инструменты и посуда</v>
+      </c>
+      <c r="H77" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
+        <v>376</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -4789,8 +4831,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
         <v>277</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="G78" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Медицинские приборы")</f>
+        <v>Медицинские приборы</v>
+      </c>
+      <c r="H78" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
+        <v>377</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
